--- a/Data/Client_Data.xlsx
+++ b/Data/Client_Data.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\POM9PMjan2025\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7007E10B-B202-4F86-A1CC-FE34EEF25675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6E93C-090D-4371-B3FE-E8E0E8BDDCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DBTesting" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="71">
   <si>
     <t>Client Name</t>
   </si>
@@ -218,6 +220,21 @@
   </si>
   <si>
     <t>incorrect or no error message</t>
+  </si>
+  <si>
+    <t>Excel Data</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; expected = new ArrayList&lt;String&gt;();</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; actual = new ArrayList&lt;String&gt;();</t>
+  </si>
+  <si>
+    <t>Ananya4</t>
   </si>
 </sst>
 </file>
@@ -287,15 +304,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,4 +911,425 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C81CC8-E882-4F35-BD87-1D842CD1C8EC}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>400001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2">
+        <v>9876543210</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1368C624-155E-4A1F-B1D3-C84E46CF67E2}">
+  <dimension ref="A4:R14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>400001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7">
+        <v>9876543210</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14">
+        <v>400001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14">
+        <v>9876543210</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>